--- a/Mapping files/1-Contract_Types_List.xlsx
+++ b/Mapping files/1-Contract_Types_List.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/facundogalea/Documents/BI Projects/growth Initiative/Data Package/Mapping Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nedelgad\Downloads\Documents\OE_automation\Mapping files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80ADB25-2C76-4E4F-A81E-4613410275D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9DF04C-27E8-4517-AD48-CDA9520FB3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="1700" windowWidth="28800" windowHeight="16680" xr2:uid="{81C2C015-5BCF-1C4D-AAF8-1376A5297E3A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{81C2C015-5BCF-1C4D-AAF8-1376A5297E3A}"/>
   </bookViews>
   <sheets>
     <sheet name="SNTCSolutionSupport" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SNTCSolutionSupport!$A$1:$G$232</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SNTCSolutionSupport!$A$1:$G$235</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1014,9 +1014,6 @@
     <t>TELEPRESENCE CUSTOMERS</t>
   </si>
   <si>
-    <t>﻿ECMU</t>
-  </si>
-  <si>
     <t>﻿ECMUS</t>
   </si>
   <si>
@@ -1114,6 +1111,9 @@
   </si>
   <si>
     <t>PSUT</t>
+  </si>
+  <si>
+    <t>ECMU</t>
   </si>
 </sst>
 </file>
@@ -1498,15 +1498,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFD3E99-6EF3-BF4D-A1E1-8D04B45FD2E7}">
   <dimension ref="A1:G235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="C231" sqref="C231"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C242" sqref="C242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" customWidth="1"/>
+    <col min="2" max="2" width="19.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1529,7 +1529,7 @@
         <v>315</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1828,7 +1828,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>72</v>
@@ -2098,7 +2098,7 @@
         <v>41</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="3" t="s">
@@ -2203,7 +2203,7 @@
         <v>107</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>58</v>
@@ -2212,16 +2212,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s">
+        <v>333</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>58</v>
@@ -2230,13 +2230,13 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B41" t="s">
         <v>337</v>
       </c>
-      <c r="B41" t="s">
-        <v>338</v>
-      </c>
       <c r="C41" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="3" t="s">
@@ -2248,13 +2248,13 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="3" t="s">
@@ -5341,72 +5341,72 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" t="s">
+        <v>361</v>
+      </c>
+      <c r="B225" t="s">
+        <v>329</v>
+      </c>
+      <c r="D225" t="s">
         <v>328</v>
       </c>
-      <c r="B225" t="s">
-        <v>330</v>
-      </c>
-      <c r="D225" t="s">
+      <c r="E225" t="s">
         <v>329</v>
-      </c>
-      <c r="E225" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>329</v>
+        <v>57</v>
       </c>
       <c r="B226" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E226" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B227" t="s">
+        <v>304</v>
+      </c>
+      <c r="C227" t="s">
         <v>341</v>
-      </c>
-      <c r="B227" t="s">
-        <v>304</v>
-      </c>
-      <c r="C227" t="s">
-        <v>342</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>70</v>
       </c>
       <c r="E227" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B228" t="s">
+        <v>304</v>
+      </c>
+      <c r="C228" t="s">
         <v>344</v>
-      </c>
-      <c r="B228" t="s">
-        <v>304</v>
-      </c>
-      <c r="C228" t="s">
-        <v>345</v>
       </c>
       <c r="D228" s="3" t="s">
         <v>71</v>
       </c>
       <c r="E228" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D229" s="1"/>
       <c r="E229" s="3" t="s">
@@ -5418,13 +5418,13 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D230" s="1"/>
       <c r="E230" s="3" t="s">
@@ -5436,13 +5436,13 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D231" s="1"/>
       <c r="E231" s="3" t="s">
@@ -5454,27 +5454,27 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B232" t="s">
+        <v>304</v>
+      </c>
+      <c r="C232" t="s">
         <v>355</v>
       </c>
-      <c r="B232" t="s">
-        <v>304</v>
-      </c>
-      <c r="C232" t="s">
+      <c r="E232" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F232" t="s">
+        <v>316</v>
+      </c>
+      <c r="G232" t="s">
         <v>356</v>
-      </c>
-      <c r="E232" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F232" t="s">
-        <v>316</v>
-      </c>
-      <c r="G232" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B233" t="s">
         <v>304</v>
@@ -5486,12 +5486,12 @@
         <v>71</v>
       </c>
       <c r="E233" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B234" t="s">
         <v>304</v>
@@ -5508,7 +5508,7 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B235" t="s">
         <v>304</v>
@@ -5520,11 +5520,11 @@
         <v>71</v>
       </c>
       <c r="E235" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G232" xr:uid="{A31333FB-FDAB-3F48-AE44-46F1B6FBC57F}"/>
+  <autoFilter ref="A1:G235" xr:uid="{A31333FB-FDAB-3F48-AE44-46F1B6FBC57F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>